--- a/alpha-beta-CROWN/GPU_results.xlsx
+++ b/alpha-beta-CROWN/GPU_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disertatie\Securitate-UVT\An 2\VerificareFormala\proiect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F86124-1718-4FE9-8444-9BA08B8C6C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61749276-C8C7-4468-A88E-F98C3D527282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B2992BEC-8E29-414C-B2AA-E4265BC1FA38}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
   <si>
     <t>Alpha-Beta-Crown</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Avg. perturbation</t>
   </si>
   <si>
-    <t>Safe/unsat</t>
-  </si>
-  <si>
-    <t>Unsafe/sat</t>
-  </si>
-  <si>
     <t>Benchmark</t>
   </si>
   <si>
@@ -195,6 +189,15 @@
   </si>
   <si>
     <t>No results</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>safe/unsat</t>
+  </si>
+  <si>
+    <t>unsafe/sat</t>
   </si>
 </sst>
 </file>
@@ -241,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -258,6 +261,9 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -582,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2433CCFD-433C-46D6-A0F5-3CF9D0B7C020}">
-  <dimension ref="A2:J22"/>
+  <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -596,23 +602,21 @@
     <col min="4" max="4" width="16.69921875" customWidth="1"/>
     <col min="5" max="5" width="16.59765625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="18.69921875" customWidth="1"/>
-    <col min="8" max="8" width="11.69921875" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+    <col min="7" max="8" width="18.69921875" customWidth="1"/>
+    <col min="9" max="9" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -621,39 +625,36 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E5" s="6">
         <v>2.0027E-5</v>
@@ -664,28 +665,25 @@
       <c r="G5" s="5">
         <v>6.6467000000000001</v>
       </c>
-      <c r="H5" s="5">
-        <v>1</v>
+      <c r="H5" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
         <v>33.250599999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="5">
         <v>2.0000000000000001E-4</v>
@@ -696,28 +694,25 @@
       <c r="G6" s="5">
         <v>8.1514000000000006</v>
       </c>
-      <c r="H6" s="5">
-        <v>1</v>
+      <c r="H6" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
         <v>21.025400000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5">
         <v>2E-3</v>
@@ -728,28 +723,25 @@
       <c r="G7" s="5">
         <v>7.9019000000000004</v>
       </c>
-      <c r="H7" s="5">
-        <v>1</v>
+      <c r="H7" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
         <v>21.9771</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="6">
         <v>2.0021E-5</v>
@@ -760,28 +752,25 @@
       <c r="G8" s="5">
         <v>11.598699999999999</v>
       </c>
-      <c r="H8" s="5">
-        <v>1</v>
+      <c r="H8" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
         <v>21.463799999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" s="5">
         <v>2.0000000000000001E-4</v>
@@ -792,28 +781,25 @@
       <c r="G9" s="5">
         <v>2.6644999999999999</v>
       </c>
-      <c r="H9" s="5">
-        <v>1</v>
+      <c r="H9" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
         <v>23.120799999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5">
         <v>2E-3</v>
@@ -824,28 +810,25 @@
       <c r="G10" s="5">
         <v>5.1361999999999997</v>
       </c>
-      <c r="H10" s="5">
-        <v>1</v>
+      <c r="H10" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
         <v>21.3505</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" s="6">
         <v>2.0027E-5</v>
@@ -856,28 +839,25 @@
       <c r="G11" s="5">
         <v>6.4348999999999998</v>
       </c>
-      <c r="H11" s="5">
-        <v>1</v>
+      <c r="H11" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
         <v>21.354900000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" s="5">
         <v>2.0000000000000001E-4</v>
@@ -888,28 +868,25 @@
       <c r="G12" s="5">
         <v>2.1526999999999998</v>
       </c>
-      <c r="H12" s="5">
-        <v>1</v>
+      <c r="H12" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
         <v>21.3719</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" s="5">
         <v>2E-3</v>
@@ -920,28 +897,25 @@
       <c r="G13" s="5">
         <v>0.56769999999999998</v>
       </c>
-      <c r="H13" s="5">
-        <v>1</v>
+      <c r="H13" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
         <v>26.513400000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14" s="6">
         <v>2.0024E-5</v>
@@ -952,28 +926,25 @@
       <c r="G14" s="5">
         <v>8.4281000000000006</v>
       </c>
-      <c r="H14" s="5">
-        <v>1</v>
+      <c r="H14" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
         <v>21.155200000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="5">
         <v>2.0000000000000001E-4</v>
@@ -984,28 +955,25 @@
       <c r="G15" s="5">
         <v>12.667299999999999</v>
       </c>
-      <c r="H15" s="5">
-        <v>1</v>
+      <c r="H15" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
         <v>22.2805</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="5">
         <v>1.9E-3</v>
@@ -1016,72 +984,67 @@
       <c r="G16" s="5">
         <v>1.5754999999999999</v>
       </c>
-      <c r="H16" s="5">
-        <v>1</v>
+      <c r="H16" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
         <v>21.6416</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E19" s="5">
         <v>2E-3</v>
@@ -1092,98 +1055,90 @@
       <c r="G19" s="7">
         <v>7.9489000000000001</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
+      <c r="H19" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
         <v>110.3424</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="5">
+        <v>15.9534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>1</v>
-      </c>
-      <c r="J20" s="5">
-        <v>15.9534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="E22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
